--- a/experiment_results/backup_result/worst_case/BankAccountTP/1wise/0.95_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/BankAccountTP/1wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="20">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -471,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -503,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -535,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -567,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -599,7 +601,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -631,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -663,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -695,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -727,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -759,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -836,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -868,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -900,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -932,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -964,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -996,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1028,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1060,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1092,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1124,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1201,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1233,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1265,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1297,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1329,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1361,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1393,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1425,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1457,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1489,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1566,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1598,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1630,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1662,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1694,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1726,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1758,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1790,7 +1792,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1822,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1854,7 +1856,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1931,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1963,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1995,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2027,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2059,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2091,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2123,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2155,7 +2157,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2187,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2219,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -2296,7 +2298,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2328,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -2360,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2392,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2424,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2456,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2488,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2520,7 +2522,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2552,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2584,7 +2586,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -2661,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2693,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -2725,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2757,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2789,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2821,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2853,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2885,7 +2887,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2917,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2949,10 +2951,740 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>63</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>63</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>63</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>63</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>63</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>63</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>63</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>63</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>48</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>48</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>48</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>48</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
       </c>
       <c r="H11">
         <v>76</v>
@@ -3026,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3058,7 +3790,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3090,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3122,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3154,7 +3886,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3186,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3218,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3250,7 +3982,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -3282,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3314,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3391,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3423,7 +4155,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3455,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3487,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3519,7 +4251,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3551,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3583,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3615,7 +4347,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -3647,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3679,7 +4411,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3756,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3788,7 +4520,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3820,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3852,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3884,7 +4616,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3916,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3948,7 +4680,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3980,7 +4712,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -4012,7 +4744,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4044,7 +4776,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4112,16 +4844,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4150,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -4185,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4208,16 +4940,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4246,10 +4978,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4272,16 +5004,16 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
         <v>16</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>47</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -4304,16 +5036,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4342,10 +5074,10 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -4368,16 +5100,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4400,16 +5132,16 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
         <v>20</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>47</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4486,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -4518,7 +5250,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -4550,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -4582,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4614,7 +5346,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -4646,7 +5378,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -4678,7 +5410,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -4710,7 +5442,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -4742,7 +5474,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -4774,7 +5506,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -4851,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4874,16 +5606,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -4915,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4947,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4970,16 +5702,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -5002,16 +5734,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -5034,16 +5766,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -5066,16 +5798,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -5107,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5130,16 +5862,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -5216,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5239,16 +5971,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -5280,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5312,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5335,16 +6067,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -5367,16 +6099,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -5399,16 +6131,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -5431,16 +6163,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -5472,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5495,16 +6227,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -5581,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5613,7 +6345,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -5645,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5677,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5709,7 +6441,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -5741,7 +6473,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -5773,7 +6505,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5805,7 +6537,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -5837,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5869,7 +6601,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
